--- a/biology/Botanique/Opuntia_vulgaris/Opuntia_vulgaris.xlsx
+++ b/biology/Botanique/Opuntia_vulgaris/Opuntia_vulgaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Opuntia vulgaris est une espèce de plantes de la famille des cactacées[5]. Elle résiste à l'aridité, à la chaleur et au soleil et se développe comme un buisson. C'est une plante qui ne possède pas de tronc et peut mesurer jusqu'à 1 m de hauteur.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Opuntia vulgaris est une espèce de plantes de la famille des cactacées. Elle résiste à l'aridité, à la chaleur et au soleil et se développe comme un buisson. C'est une plante qui ne possède pas de tronc et peut mesurer jusqu'à 1 m de hauteur.
 Les  fruits d'Opuntia vulgaris sont comestibles, très riches en eau et charnus de couleur rouge ou jaune orangé quand ils sont mûrs.
 </t>
         </is>
@@ -512,11 +524,13 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Riche en eau , elle sert surtout de « réservoir d'eau » pour les régions sèches. La consommation de quelques fruits permet en effet de se désaltérer.
-L’écorce de cette plante est utilisée dans le traitement des pédiculoses au Cameroun[5].
-On peut faire de la confiture avec ses fruits et obtenir du miel par l'extraction faite avec les feuilles[6].
+L’écorce de cette plante est utilisée dans le traitement des pédiculoses au Cameroun.
+On peut faire de la confiture avec ses fruits et obtenir du miel par l'extraction faite avec les feuilles.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (10 août 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (10 août 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Opuntia vulgaris var. major Salm-Dyck
 variété Opuntia vulgaris var. media Salm-Dyck
 variété Opuntia vulgaris var. nana (Vis.) K. Schum.
